--- a/doc/Agenda.xlsx
+++ b/doc/Agenda.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fphub\eclipse-workspace\limsi.Argumentation.0.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fphub\eclipse-workspace\limsi.Argumentation.0.1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9948E78E-78F4-4501-92B2-D0E02952C169}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A438F9-ACD5-486E-A3E5-84D3B12A16C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{15DEA58E-1F47-41F5-9025-536FCFB29DFB}"/>
   </bookViews>
@@ -33,13 +33,13 @@
     <t>recherches biblio, préparer architecure du code</t>
   </si>
   <si>
-    <t>coder système de pondération + trouver des valeurs vraisemblables et des objets types</t>
-  </si>
-  <si>
     <t>coder argumentation -&gt; enchainement naturel des phrases dans le dialogue.</t>
   </si>
   <si>
     <t>Il me reste 10 mercredi avant la fin de l'année.</t>
+  </si>
+  <si>
+    <t>coder système de pondération + trouver des valeurs vraisemblables et des objets types / commencer recherche sur la personnalité</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,7 +419,7 @@
         <v>43194</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -427,7 +427,7 @@
         <v>43201</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -462,7 +462,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
